--- a/Data Gathered and Results/Test #5 Hidden Layer Counts (4, 6, 8)/Results.xlsx
+++ b/Data Gathered and Results/Test #5 Hidden Layer Counts (4, 6, 8)/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data\Test #1 Default Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data Gathered and Results\Test #5 Hidden Layer Counts (4, 6, 8)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="16065" windowHeight="11610"/>
+    <workbookView xWindow="5850" yWindow="0" windowWidth="16065" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Initial benchmark" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -27,58 +27,13 @@
     <t>SR_UMUT_CSP</t>
   </si>
   <si>
-    <t>SR_NMUT_CDP</t>
-  </si>
-  <si>
-    <t>SR_UMUT_CDP</t>
-  </si>
-  <si>
-    <t>SR_NMUT_CSP</t>
-  </si>
-  <si>
-    <t>ST_UMUT_CSP</t>
-  </si>
-  <si>
-    <t>ST_NMUT_CDP</t>
-  </si>
-  <si>
     <t>ST_UMUT_CDP</t>
-  </si>
-  <si>
-    <t>ST_NMUT_CSP</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Negative Inversion</t>
-  </si>
-  <si>
-    <t>Uniform</t>
-  </si>
-  <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>Roulette</t>
-  </si>
-  <si>
-    <t>Crosspoint</t>
-  </si>
-  <si>
-    <t>Single Point</t>
-  </si>
-  <si>
-    <t>Double Point</t>
-  </si>
-  <si>
-    <t>Tournament 2</t>
-  </si>
-  <si>
-    <t>Mutation 0.2</t>
   </si>
   <si>
     <t>Hidden Layer Count: 6</t>
@@ -90,19 +45,49 @@
     <t>Exit Error: 0.0</t>
   </si>
   <si>
-    <t>Mutation Rate: 0.2</t>
+    <t>Elite Population Size: 5</t>
   </si>
   <si>
-    <t>Tournament Selection Number: 2</t>
+    <t>A Results</t>
   </si>
   <si>
-    <t>Elite Population Size: 5</t>
+    <t>Hidden Layer Count: 4</t>
+  </si>
+  <si>
+    <t>Mutation Rate: 0.1</t>
+  </si>
+  <si>
+    <t>Tournament Selection Number: 6</t>
+  </si>
+  <si>
+    <t>4 Layers</t>
+  </si>
+  <si>
+    <t>6 Layers</t>
+  </si>
+  <si>
+    <t>8 Layers</t>
+  </si>
+  <si>
+    <t>Hidden Layer Count: 8</t>
+  </si>
+  <si>
+    <t>B Results</t>
+  </si>
+  <si>
+    <t>Elite Population Size: 2</t>
+  </si>
+  <si>
+    <t>C Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +568,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -640,6 +625,3199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dataset A | NN Hidden Layers Experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Initial benchmark'!$B$1,'Initial benchmark'!$D$1,'Initial benchmark'!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4 Layers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Layers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Initial benchmark'!$C$2,'Initial benchmark'!$F$2,'Initial benchmark'!$I$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8769093238384101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42850229019313E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26886057548805E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1895-411D-83BE-847F8CF80891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="517493592"/>
+        <c:axId val="517489328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="517493592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of NN Hidden Layers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517489328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517489328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean Squared Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517493592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dataset B | NN Hidden Layers Experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Initial benchmark'!$B$11,'Initial benchmark'!$D$11,'Initial benchmark'!$G$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4 Layers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Layers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Initial benchmark'!$C$12,'Initial benchmark'!$F$12,'Initial benchmark'!$I$12)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.63029316586603E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.60598772942777E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32469373782891E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8524-48E9-AD1E-B4922834D318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="517493592"/>
+        <c:axId val="517489328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="517493592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of NN Hidden Layers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517489328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517489328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean Squared Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517493592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dataset C | NN Hidden Layers Experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial benchmark'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Initial benchmark'!$B$21,'Initial benchmark'!$D$21,'Initial benchmark'!$G$21,'Initial benchmark'!$G$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4 Layers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 Layers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 Layers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Initial benchmark'!$C$22,'Initial benchmark'!$F$22,'Initial benchmark'!$I$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5453951054687499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0662868987683201E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11348163332918999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5103-4DD5-AAE1-BE98B72336E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="517493592"/>
+        <c:axId val="517489328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="517493592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of NN Hidden Layers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517489328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517489328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean Squared Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517493592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E6FEF6-0CD7-4396-AD2C-3FB85A0BC9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F30175C-740F-4CFF-8241-E4D7AE7F774D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D338D-6807-4ECB-B3BA-2B5D64A313D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,33 +4117,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>6.4189132999999995E-2</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -973,401 +4155,314 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.3847968000000003E-2</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>1.8769093238384101E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1.42850229019313E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1.26886057548805E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>5.9761132000000002E-2</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.63029316586603E-5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.60598772942777E-5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.32469373782891E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5.7858828000000001E-2</v>
-      </c>
-      <c r="D4" s="1"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5.9023764999999999E-2</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5.0454234000000001E-2</v>
-      </c>
-      <c r="D6" s="1"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6.3380890999999995E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>5.3128673000000001E-2</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.9799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.4600000000000002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.2600000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.9900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.8800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.42E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.6299999999999999E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0.192457723</v>
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0.18607531199999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.19262232100000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0.18352695099999999</v>
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0.212425796</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.185006591</v>
+        <v>5.5453951054687499E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6.0662868987683201E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.11348163332918999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0.20537276700000001</v>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>0.18724368799999999</v>
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26">
-        <f>AVERAGE(C2,C4,C6,C8)</f>
-        <v>5.382242575E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <f>AVERAGE(C10,C12,C14,C16)</f>
-        <v>2.2175E-4</v>
-      </c>
-      <c r="I26">
-        <f>AVERAGE(C18,C20,C22,C24)</f>
-        <v>0.18546313550000001</v>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G27">
-        <f>AVERAGE(C1,C3,C5,C7)</f>
-        <v>6.1588730250000001E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <f>AVERAGE(C9,C11,C13,C15)</f>
-        <v>3.1875000000000002E-4</v>
-      </c>
-      <c r="I27">
-        <f>AVERAGE(C17,C19,C21,C23)</f>
-        <v>0.20071965175000001</v>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28">
-        <f>AVERAGE(C1,C2,C3,C4)</f>
-        <v>5.891426525E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <f>AVERAGE(C9,C10,C11,C12)</f>
-        <v>2.6725000000000002E-4</v>
-      </c>
-      <c r="I28">
-        <f>AVERAGE(C17,C18,C19,C20)</f>
-        <v>0.18867057674999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29">
-        <f>AVERAGE(C5,C6,C7,C8)</f>
-        <v>5.6496890750000001E-2</v>
-      </c>
-      <c r="H29" s="1">
-        <f>AVERAGE(C13,C14,C15,C16)</f>
-        <v>2.7325E-4</v>
-      </c>
-      <c r="I29">
-        <f>AVERAGE(C21,C22,C23,C24)</f>
-        <v>0.19751221050000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <f>AVERAGE(C1,C4,C5,C8)</f>
-        <v>5.8550099750000001E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <f>AVERAGE(C9,C12,C13,C16)</f>
-        <v>2.4625000000000005E-4</v>
-      </c>
-      <c r="I30">
-        <f>AVERAGE(C17,C20,C21,C24)</f>
-        <v>0.19391353950000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31">
-        <f>AVERAGE(C2,C3,C6,C7)</f>
-        <v>5.686105625E-2</v>
-      </c>
-      <c r="H31" s="1">
-        <f>AVERAGE(C10,C11,C14,C15)</f>
-        <v>2.9425000000000002E-4</v>
-      </c>
-      <c r="I31">
-        <f>AVERAGE(C18,C19,C22,C23)</f>
-        <v>0.19226924775000004</v>
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>